--- a/Experiment/Voltage-torque relations.xlsx
+++ b/Experiment/Voltage-torque relations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915ABCA5-1162-4291-82BF-D9722B537AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2351573-4BF4-4B19-A4E4-07284B6DEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28944" yWindow="288" windowWidth="28800" windowHeight="15372" firstSheet="1" activeTab="3" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
   </bookViews>
   <sheets>
     <sheet name="torque measurements 40rpm 100hz" sheetId="1" r:id="rId1"/>
@@ -5263,7 +5263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2C29B1-55A2-41ED-8A8A-942B8FDE2612}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -5303,7 +5303,7 @@
         <v>1.8</v>
       </c>
       <c r="I2">
-        <f>B2/1000*9.81*A2/1000</f>
+        <f t="shared" ref="I2:I25" si="0">B2/1000*9.81*A2/1000</f>
         <v>0.56360411999999993</v>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
         <v>2.5</v>
       </c>
       <c r="I3">
-        <f>B3/1000*9.81*A3/1000</f>
+        <f t="shared" si="0"/>
         <v>0.90921042000000007</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>B4/1000*9.81*A4/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1697444000000004</v>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
         <v>3.25</v>
       </c>
       <c r="I5">
-        <f>B5/1000*9.81*A5/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2867188400000003</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>3.5</v>
       </c>
       <c r="I6">
-        <f>B6/1000*9.81*A6/1000</f>
+        <f t="shared" si="0"/>
         <v>1.4794755300000002</v>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <f>B7/1000*9.81*A7/1000</f>
+        <f t="shared" si="0"/>
         <v>1.7197322400000004</v>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
         <v>4.5</v>
       </c>
       <c r="I8">
-        <f>B8/1000*9.81*A8/1000</f>
+        <f t="shared" si="0"/>
         <v>2.0232144000000001</v>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
         <v>1289</v>
       </c>
       <c r="I9">
-        <f>B9/1000*9.81*A9/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
         <v>1289</v>
       </c>
       <c r="I10">
-        <f>B10/1000*9.81*A10/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
         <v>1289</v>
       </c>
       <c r="I11">
-        <f>B11/1000*9.81*A11/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
         <v>1289</v>
       </c>
       <c r="I12">
-        <f>B12/1000*9.81*A12/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
         <v>1289</v>
       </c>
       <c r="I13">
-        <f>B13/1000*9.81*A13/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
         <v>1289</v>
       </c>
       <c r="I14">
-        <f>B14/1000*9.81*A14/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
         <v>1289</v>
       </c>
       <c r="I15">
-        <f>B15/1000*9.81*A15/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
         <v>1289</v>
       </c>
       <c r="I16">
-        <f>B16/1000*9.81*A16/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
         <v>1289</v>
       </c>
       <c r="I17">
-        <f>B17/1000*9.81*A17/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
         <v>1289</v>
       </c>
       <c r="I18">
-        <f>B18/1000*9.81*A18/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
         <v>1289</v>
       </c>
       <c r="I19">
-        <f>B19/1000*9.81*A19/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
         <v>1289</v>
       </c>
       <c r="I20">
-        <f>B20/1000*9.81*A20/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
         <v>1289</v>
       </c>
       <c r="I21">
-        <f>B21/1000*9.81*A21/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
         <v>1289</v>
       </c>
       <c r="I22">
-        <f>B22/1000*9.81*A22/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
         <v>1289</v>
       </c>
       <c r="I23">
-        <f>B23/1000*9.81*A23/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
         <v>1289</v>
       </c>
       <c r="I24">
-        <f>B24/1000*9.81*A24/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
         <v>1289</v>
       </c>
       <c r="I25">
-        <f>B25/1000*9.81*A25/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E86608-DEC1-4C54-A23B-1F1B889E18DF}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5603,7 +5603,7 @@
         <v>3.5</v>
       </c>
       <c r="I2">
-        <f>B2/1000*9.81*A2/1000</f>
+        <f t="shared" ref="I2:I25" si="0">B2/1000*9.81*A2/1000</f>
         <v>0.48384882000000001</v>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <f>B3/1000*9.81*A3/1000</f>
+        <f t="shared" si="0"/>
         <v>0.56892114000000005</v>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
         <v>4.5</v>
       </c>
       <c r="I4">
-        <f>B4/1000*9.81*A4/1000</f>
+        <f t="shared" si="0"/>
         <v>0.64335942000000013</v>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <f>B5/1000*9.81*A5/1000</f>
+        <f t="shared" si="0"/>
         <v>0.76033385999999992</v>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
         <v>5.5</v>
       </c>
       <c r="I6">
-        <f>B6/1000*9.81*A6/1000</f>
+        <f t="shared" si="0"/>
         <v>0.81350406000000008</v>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f>B7/1000*9.81*A7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.85604022000000013</v>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
         <v>6.5</v>
       </c>
       <c r="I8">
-        <f>B8/1000*9.81*A8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.88262532000000005</v>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>7.5</v>
       </c>
       <c r="I9">
-        <f>B9/1000*9.81*A9/1000</f>
+        <f t="shared" si="0"/>
         <v>1.11125718</v>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
         <v>542</v>
       </c>
       <c r="I10">
-        <f>B10/1000*9.81*A10/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
         <v>542</v>
       </c>
       <c r="I11">
-        <f>B11/1000*9.81*A11/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
         <v>542</v>
       </c>
       <c r="I12">
-        <f>B12/1000*9.81*A12/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5744,7 +5744,7 @@
         <v>542</v>
       </c>
       <c r="I13">
-        <f>B13/1000*9.81*A13/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
         <v>542</v>
       </c>
       <c r="I14">
-        <f>B14/1000*9.81*A14/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
         <v>542</v>
       </c>
       <c r="I15">
-        <f>B15/1000*9.81*A15/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
         <v>542</v>
       </c>
       <c r="I16">
-        <f>B16/1000*9.81*A16/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>542</v>
       </c>
       <c r="I17">
-        <f>B17/1000*9.81*A17/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
         <v>542</v>
       </c>
       <c r="I18">
-        <f>B18/1000*9.81*A18/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5798,7 +5798,7 @@
         <v>542</v>
       </c>
       <c r="I19">
-        <f>B19/1000*9.81*A19/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
         <v>542</v>
       </c>
       <c r="I20">
-        <f>B20/1000*9.81*A20/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
         <v>542</v>
       </c>
       <c r="I21">
-        <f>B21/1000*9.81*A21/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
         <v>542</v>
       </c>
       <c r="I22">
-        <f>B22/1000*9.81*A22/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
         <v>542</v>
       </c>
       <c r="I23">
-        <f>B23/1000*9.81*A23/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
         <v>542</v>
       </c>
       <c r="I24">
-        <f>B24/1000*9.81*A24/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
         <v>542</v>
       </c>
       <c r="I25">
-        <f>B25/1000*9.81*A25/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Experiment/Voltage-torque relations.xlsx
+++ b/Experiment/Voltage-torque relations.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2351573-4BF4-4B19-A4E4-07284B6DEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959AB321-A4F5-4F26-9BF8-4060BB710C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="4" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
   </bookViews>
   <sheets>
     <sheet name="torque measurements 40rpm 100hz" sheetId="1" r:id="rId1"/>
     <sheet name="torque measurements 6rpm" sheetId="2" r:id="rId2"/>
     <sheet name="torque measurements 6rpm angle" sheetId="3" r:id="rId3"/>
     <sheet name="torque measurements 40rpm angle" sheetId="4" r:id="rId4"/>
+    <sheet name="torque measurements 6rpm an (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Torque (Nm)</t>
   </si>
@@ -1960,6 +1961,562 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1183727034120735"/>
+          <c:y val="0.10043325209856487"/>
+          <c:w val="0.84396062992125986"/>
+          <c:h val="0.77480805354245419"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque measurements 6rpm an (2)'!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="8"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque measurements 6rpm an (2)'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque measurements 6rpm an (2)'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.56360411999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90921042000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1697444000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2867188400000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4794755300000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7197322400000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0232144000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47321478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55840482000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86394707999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13797765000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14366745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21478995000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45828396000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30819096000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-093D-4F2F-B862-833CCFEDCB63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488000112"/>
+        <c:axId val="336565712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488000112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336565712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336565712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Torque (Nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488000112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2120,6 +2677,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3669,6 +4266,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4354,6 +5467,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D18B6C-02FB-4ED6-8162-7D9D2B31FDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5263,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2C29B1-55A2-41ED-8A8A-942B8FDE2612}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -5863,4 +7019,352 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C63D555-4376-4381-BE57-FE458D973A36}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>542</v>
+      </c>
+      <c r="B2">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>1.8</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" si="0">B2/1000*9.81*A2/1000</f>
+        <v>0.56360411999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>542</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.90921042000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>542</v>
+      </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.1697444000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>542</v>
+      </c>
+      <c r="B5">
+        <v>242</v>
+      </c>
+      <c r="C5">
+        <v>3.25</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.2867188400000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1289</v>
+      </c>
+      <c r="B6">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.4794755300000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1289</v>
+      </c>
+      <c r="B7">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.7197322400000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1289</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>4.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.0232144000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>542</v>
+      </c>
+      <c r="B9">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>1.72</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.47321478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1289</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>537</v>
+      </c>
+      <c r="B11">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>1.93</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.55840482000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>537</v>
+      </c>
+      <c r="B12">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.86394707999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>145</v>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>0.83</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.13797765000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>145</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>0.92</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.14366745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>145</v>
+      </c>
+      <c r="B15">
+        <v>151</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.21478995000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>204</v>
+      </c>
+      <c r="B16">
+        <v>229</v>
+      </c>
+      <c r="C16">
+        <v>1.56</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.45828396000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>204</v>
+      </c>
+      <c r="B17">
+        <v>154</v>
+      </c>
+      <c r="C17">
+        <v>1.22</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.30819096000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>145</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>145</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>145</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>145</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>145</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>145</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>145</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experiment/Voltage-torque relations.xlsx
+++ b/Experiment/Voltage-torque relations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959AB321-A4F5-4F26-9BF8-4060BB710C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC205A97-B776-49DC-8F2C-92F6F1EE01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="4" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="2" activeTab="5" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
   </bookViews>
   <sheets>
     <sheet name="torque measurements 40rpm 100hz" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="torque measurements 6rpm angle" sheetId="3" r:id="rId3"/>
     <sheet name="torque measurements 40rpm angle" sheetId="4" r:id="rId4"/>
     <sheet name="torque measurements 6rpm an (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="torque measurements 6rpm an (3)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Torque (Nm)</t>
   </si>
@@ -55,6 +57,9 @@
   </si>
   <si>
     <t>Voltage</t>
+  </si>
+  <si>
+    <t>Voltage (V)</t>
   </si>
 </sst>
 </file>
@@ -90,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2276,6 +2282,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2359,8 +2420,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Torque (Nm)</a:t>
+                  <a:t>Torque</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [Nm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2442,8 +2508,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2457,7 +2580,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2472,7 +2595,477 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1183727034120735"/>
+          <c:y val="0.10043325209856487"/>
+          <c:w val="0.84396062992125986"/>
+          <c:h val="0.77480805354245419"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque measurements 6rpm an (3)'!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="8"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque measurements 6rpm an (3)'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque measurements 6rpm an (3)'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.13797765000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14366745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21478995000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30819096000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45828396000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47321478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55840482000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56360411999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86394707999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90921042000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1697444000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2867188400000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4794755300000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7197322400000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0232144000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D70E-4C19-ABB0-4DF3D77494F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488000112"/>
+        <c:axId val="336565712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488000112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336565712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336565712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [Nm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488000112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2717,6 +3310,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4782,6 +5415,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5510,6 +6659,67 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA0B1EF-34B7-4B11-B064-F2230926EEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE9428F2-7EB1-49A5-98EE-8344F0F09B89}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16" xr:uid="{EE9428F2-7EB1-49A5-98EE-8344F0F09B89}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition ref="D1:D16"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{06195711-AD0E-414C-89D5-43B050DC3B58}" name="Mass (g)"/>
+    <tableColumn id="2" xr3:uid="{F1B10E5C-10BD-48DB-BE9C-443B8068350F}" name="Lever (mm)"/>
+    <tableColumn id="3" xr3:uid="{7998185F-6DE5-4FA4-BA34-3297D93D8652}" name="Voltage (V)"/>
+    <tableColumn id="4" xr3:uid="{DDC552D3-D625-44E6-92AC-3DD58F0ED37B}" name="Torque (Nm)">
+      <calculatedColumnFormula>B2/1000*9.81*A2/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7025,8 +8235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C63D555-4376-4381-BE57-FE458D973A36}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,4 +8577,268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C980A5-A097-4952-A7D0-91A48A4ED0B1}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>0.83</v>
+      </c>
+      <c r="D2">
+        <f>B2/1000*9.81*A2/1000</f>
+        <v>0.13797765000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>0.92</v>
+      </c>
+      <c r="D3">
+        <f>B3/1000*9.81*A3/1000</f>
+        <v>0.14366745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <f>B4/1000*9.81*A4/1000</f>
+        <v>0.21478995000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>1.22</v>
+      </c>
+      <c r="D5">
+        <f>B5/1000*9.81*A5/1000</f>
+        <v>0.30819096000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>229</v>
+      </c>
+      <c r="C6">
+        <v>1.56</v>
+      </c>
+      <c r="D6">
+        <f>B6/1000*9.81*A6/1000</f>
+        <v>0.45828396000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>542</v>
+      </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>1.72</v>
+      </c>
+      <c r="D7">
+        <f>B7/1000*9.81*A7/1000</f>
+        <v>0.47321478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>537</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>1.93</v>
+      </c>
+      <c r="D8">
+        <f>B8/1000*9.81*A8/1000</f>
+        <v>0.55840482000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>542</v>
+      </c>
+      <c r="B9">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>1.8</v>
+      </c>
+      <c r="D9">
+        <f>B9/1000*9.81*A9/1000</f>
+        <v>0.56360411999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>537</v>
+      </c>
+      <c r="B10">
+        <v>164</v>
+      </c>
+      <c r="C10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D10">
+        <f>B10/1000*9.81*A10/1000</f>
+        <v>0.86394707999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>542</v>
+      </c>
+      <c r="B11">
+        <v>171</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+      <c r="D11">
+        <f>B11/1000*9.81*A11/1000</f>
+        <v>0.90921042000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>542</v>
+      </c>
+      <c r="B12">
+        <v>220</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f>B12/1000*9.81*A12/1000</f>
+        <v>1.1697444000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>542</v>
+      </c>
+      <c r="B13">
+        <v>242</v>
+      </c>
+      <c r="C13">
+        <v>3.25</v>
+      </c>
+      <c r="D13">
+        <f>B13/1000*9.81*A13/1000</f>
+        <v>1.2867188400000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1289</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+      <c r="D14">
+        <f>B14/1000*9.81*A14/1000</f>
+        <v>1.4794755300000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1289</v>
+      </c>
+      <c r="B15">
+        <v>136</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>B15/1000*9.81*A15/1000</f>
+        <v>1.7197322400000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1289</v>
+      </c>
+      <c r="B16">
+        <v>160</v>
+      </c>
+      <c r="C16">
+        <v>4.5</v>
+      </c>
+      <c r="D16">
+        <f>B16/1000*9.81*A16/1000</f>
+        <v>2.0232144000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Experiment/Voltage-torque relations.xlsx
+++ b/Experiment/Voltage-torque relations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC205A97-B776-49DC-8F2C-92F6F1EE01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EEB02-6B03-4AF8-882F-3010095715A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="2" activeTab="5" xr2:uid="{3D52C5DC-61EC-4009-AC61-8995892A8564}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="torque measurements 6rpm an (3)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,12 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2805,6 +2803,564 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D70E-4C19-ABB0-4DF3D77494F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488000112"/>
+        <c:axId val="336565712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488000112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336565712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336565712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [Nm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488000112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1183727034120735"/>
+          <c:y val="0.10043325209856487"/>
+          <c:w val="0.84396062992125986"/>
+          <c:h val="0.77480805354245419"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'torque measurements 6rpm an (3)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="8"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'torque measurements 6rpm an (3)'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'torque measurements 6rpm an (3)'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.13797765000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14366745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21478995000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30819096000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45828396000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47321478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55840482000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56360411999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86394707999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90921042000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1697444000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2867188400000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4794755300000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7197322400000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0232144000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C98B-4956-88AA-A3E7C6BB31D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3350,6 +3906,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5931,6 +6527,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6664,7 +7776,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>198121</xdr:colOff>
+      <xdr:colOff>196216</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>80008</xdr:rowOff>
     </xdr:from>
@@ -6672,7 +7784,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
+      <xdr:rowOff>108584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6694,6 +7806,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>545123</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34291</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25870DDD-7C9C-4F8C-9E60-51FCAF92EBB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8583,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C980A5-A097-4952-A7D0-91A48A4ED0B1}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8602,7 +9752,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -8620,7 +9770,7 @@
         <v>0.83</v>
       </c>
       <c r="D2">
-        <f>B2/1000*9.81*A2/1000</f>
+        <f t="shared" ref="D2:D16" si="0">B2/1000*9.81*A2/1000</f>
         <v>0.13797765000000001</v>
       </c>
     </row>
@@ -8635,7 +9785,7 @@
         <v>0.92</v>
       </c>
       <c r="D3">
-        <f>B3/1000*9.81*A3/1000</f>
+        <f t="shared" si="0"/>
         <v>0.14366745</v>
       </c>
     </row>
@@ -8650,7 +9800,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D4">
-        <f>B4/1000*9.81*A4/1000</f>
+        <f t="shared" si="0"/>
         <v>0.21478995000000001</v>
       </c>
     </row>
@@ -8665,7 +9815,7 @@
         <v>1.22</v>
       </c>
       <c r="D5">
-        <f>B5/1000*9.81*A5/1000</f>
+        <f t="shared" si="0"/>
         <v>0.30819096000000001</v>
       </c>
     </row>
@@ -8680,7 +9830,7 @@
         <v>1.56</v>
       </c>
       <c r="D6">
-        <f>B6/1000*9.81*A6/1000</f>
+        <f t="shared" si="0"/>
         <v>0.45828396000000005</v>
       </c>
     </row>
@@ -8695,7 +9845,7 @@
         <v>1.72</v>
       </c>
       <c r="D7">
-        <f>B7/1000*9.81*A7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.47321478</v>
       </c>
     </row>
@@ -8710,7 +9860,7 @@
         <v>1.93</v>
       </c>
       <c r="D8">
-        <f>B8/1000*9.81*A8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55840482000000002</v>
       </c>
     </row>
@@ -8725,7 +9875,7 @@
         <v>1.8</v>
       </c>
       <c r="D9">
-        <f>B9/1000*9.81*A9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.56360411999999993</v>
       </c>
     </row>
@@ -8740,7 +9890,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="D10">
-        <f>B10/1000*9.81*A10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.86394707999999998</v>
       </c>
     </row>
@@ -8755,7 +9905,7 @@
         <v>2.5</v>
       </c>
       <c r="D11">
-        <f>B11/1000*9.81*A11/1000</f>
+        <f t="shared" si="0"/>
         <v>0.90921042000000007</v>
       </c>
     </row>
@@ -8770,7 +9920,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <f>B12/1000*9.81*A12/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1697444000000004</v>
       </c>
     </row>
@@ -8785,7 +9935,7 @@
         <v>3.25</v>
       </c>
       <c r="D13">
-        <f>B13/1000*9.81*A13/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2867188400000003</v>
       </c>
     </row>
@@ -8800,7 +9950,7 @@
         <v>3.5</v>
       </c>
       <c r="D14">
-        <f>B14/1000*9.81*A14/1000</f>
+        <f t="shared" si="0"/>
         <v>1.4794755300000002</v>
       </c>
     </row>
@@ -8815,7 +9965,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <f>B15/1000*9.81*A15/1000</f>
+        <f t="shared" si="0"/>
         <v>1.7197322400000004</v>
       </c>
     </row>
@@ -8830,7 +9980,7 @@
         <v>4.5</v>
       </c>
       <c r="D16">
-        <f>B16/1000*9.81*A16/1000</f>
+        <f t="shared" si="0"/>
         <v>2.0232144000000001</v>
       </c>
     </row>
